--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SATHIYAVATHI\Desktop\Anandh_Study_material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DB64B3-1B05-44E3-B1DF-EA521BDF4252}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FDA12F-0A46-4697-9C11-AC0BCFE15131}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3861,16 +3862,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>276226</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>600076</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3885,7 +3886,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7229476" y="1638300"/>
+          <a:off x="7743826" y="2133600"/>
           <a:ext cx="933450" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -3934,16 +3935,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>523876</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3958,7 +3959,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9305926" y="1866900"/>
+          <a:off x="9820276" y="2362200"/>
           <a:ext cx="1209674" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4007,16 +4008,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4031,7 +4032,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8943975" y="2390775"/>
+          <a:off x="9458325" y="2886075"/>
           <a:ext cx="933450" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4080,16 +4081,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4104,7 +4105,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8982075" y="2838450"/>
+          <a:off x="9496425" y="3333750"/>
           <a:ext cx="933450" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4153,16 +4154,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4177,7 +4178,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8924925" y="3352801"/>
+          <a:off x="9439275" y="3848101"/>
           <a:ext cx="1152525" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4226,16 +4227,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4250,7 +4251,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8886825" y="3819526"/>
+          <a:off x="9401175" y="4314826"/>
           <a:ext cx="1152525" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4299,16 +4300,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4323,7 +4324,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7905750" y="4171951"/>
+          <a:off x="8420100" y="4667251"/>
           <a:ext cx="1152525" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4372,16 +4373,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4398,7 +4399,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6657975" y="1971675"/>
+          <a:off x="7172325" y="2466975"/>
           <a:ext cx="1038226" cy="857250"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4424,16 +4425,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4448,7 +4449,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6648450" y="2143125"/>
+          <a:off x="7162800" y="2638425"/>
           <a:ext cx="2695575" cy="695326"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4474,16 +4475,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>80963</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4500,7 +4501,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6648450" y="2557463"/>
+          <a:off x="7162800" y="3052763"/>
           <a:ext cx="2295525" cy="290512"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4526,16 +4527,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>147638</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4552,7 +4553,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6657975" y="2838450"/>
+          <a:off x="7172325" y="3333750"/>
           <a:ext cx="2324100" cy="166688"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4578,16 +4579,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4604,7 +4605,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6657975" y="2847975"/>
+          <a:off x="7172325" y="3343275"/>
           <a:ext cx="2266950" cy="666751"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4630,16 +4631,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4656,7 +4657,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6648450" y="2857500"/>
+          <a:off x="7162800" y="3352800"/>
           <a:ext cx="2238375" cy="1123951"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4682,16 +4683,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>309563</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4708,7 +4709,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6667500" y="2867025"/>
+          <a:off x="7181850" y="3362325"/>
           <a:ext cx="1814513" cy="1304926"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4734,16 +4735,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>155448</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>79248</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4758,7 +4759,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7820025" y="1257300"/>
+          <a:off x="8334375" y="1752600"/>
           <a:ext cx="3390899" cy="612648"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -4797,16 +4798,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>571501</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>3048</xdr:rowOff>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>117348</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4821,7 +4822,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9963151" y="2628900"/>
+          <a:off x="10477501" y="3124200"/>
           <a:ext cx="1885950" cy="612648"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -5496,6 +5497,125 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Right Brace 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B79FA37-6AB4-4ED7-9278-615178FC3A36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6791325" y="2438400"/>
+          <a:ext cx="381000" cy="1838325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>11738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Picture 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1A77BBC-510D-446F-BE36-85A769E7ECCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="6410326"/>
+          <a:ext cx="9877424" cy="3697912"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5969,8 +6089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E37C445-2875-4EE6-9E97-653A70D41761}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6021,7 +6141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95558BB-BB72-4CE0-A4A4-133A52B4D3EF}">
   <dimension ref="C3:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SATHIYAVATHI\Desktop\Anandh_Study_material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FDA12F-0A46-4697-9C11-AC0BCFE15131}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8555B7-0F75-48AD-99F3-A91D80BBF972}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1727,14 +1726,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1466850</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1512569</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1749,7 +1748,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2076450" y="2971800"/>
+          <a:off x="2076450" y="4333875"/>
           <a:ext cx="45719" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -1787,14 +1786,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1483994</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1809,7 +1808,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="3924300"/>
+          <a:off x="2047875" y="5286375"/>
           <a:ext cx="45719" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -1847,14 +1846,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1428750</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1474469</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1869,7 +1868,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2038350" y="4867274"/>
+          <a:off x="2038350" y="6229349"/>
           <a:ext cx="45719" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -1907,14 +1906,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>17144</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1929,7 +1928,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6315075" y="3343275"/>
+          <a:off x="6315075" y="4705350"/>
           <a:ext cx="45719" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -1967,14 +1966,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>26669</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1989,7 +1988,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6324600" y="4486275"/>
+          <a:off x="6324600" y="5848350"/>
           <a:ext cx="45719" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -2027,14 +2026,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1771650</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3009900</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2049,7 +2048,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2381250" y="2562225"/>
+          <a:off x="2381250" y="3924300"/>
           <a:ext cx="1238250" cy="981075"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2080,14 +2079,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4181476</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2102,7 +2101,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4791076" y="4276726"/>
+          <a:off x="4791076" y="5638801"/>
           <a:ext cx="1276349" cy="952499"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2133,14 +2132,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4219575</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2155,7 +2154,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4829175" y="2857500"/>
+          <a:off x="4829175" y="4219575"/>
           <a:ext cx="1228725" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2186,14 +2185,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1771650</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3000375</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2208,7 +2207,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2381250" y="4295775"/>
+          <a:off x="2381250" y="5657850"/>
           <a:ext cx="1228725" cy="1152525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2239,14 +2238,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2261,7 +2260,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2943226"/>
+          <a:off x="0" y="4305301"/>
           <a:ext cx="866775" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2312,14 +2311,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2334,7 +2333,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="57151" y="3324226"/>
+          <a:off x="57151" y="4686301"/>
           <a:ext cx="704850" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2385,14 +2384,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>200026</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2407,7 +2406,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="47626" y="3676650"/>
+          <a:off x="47626" y="5038725"/>
           <a:ext cx="762000" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2458,14 +2457,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>438151</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2480,7 +2479,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="304801" y="4152901"/>
+          <a:off x="304801" y="5514976"/>
           <a:ext cx="742950" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2531,14 +2530,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2553,7 +2552,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="352425" y="4524376"/>
+          <a:off x="352425" y="5886451"/>
           <a:ext cx="657225" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2604,14 +2603,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>276226</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>466726</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2626,7 +2625,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="276226" y="4810125"/>
+          <a:off x="276226" y="6172200"/>
           <a:ext cx="800100" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2677,14 +2676,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2699,7 +2698,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="666750" y="5657850"/>
+          <a:off x="666750" y="7019925"/>
           <a:ext cx="866775" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2750,14 +2749,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2772,7 +2771,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="238125" y="5286375"/>
+          <a:off x="238125" y="6648450"/>
           <a:ext cx="1114425" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2823,14 +2822,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>61914</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>90489</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1190625</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2847,7 +2846,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="866775" y="3109914"/>
+          <a:off x="866775" y="4471989"/>
           <a:ext cx="933450" cy="433386"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2875,14 +2874,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1190625</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2899,7 +2898,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762001" y="3467101"/>
+          <a:off x="762001" y="4829176"/>
           <a:ext cx="1038224" cy="76199"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2927,14 +2926,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>200026</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1171575</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2951,7 +2950,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="809626" y="3543300"/>
+          <a:off x="809626" y="4905375"/>
           <a:ext cx="971549" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2979,14 +2978,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>438151</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1181100</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3003,7 +3002,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1047751" y="4305301"/>
+          <a:off x="1047751" y="5667376"/>
           <a:ext cx="742949" cy="200024"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3031,14 +3030,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1181100</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3055,7 +3054,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1009650" y="4505325"/>
+          <a:off x="1009650" y="5867400"/>
           <a:ext cx="781050" cy="142876"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3083,14 +3082,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>466726</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1190625</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3107,7 +3106,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1076326" y="4514850"/>
+          <a:off x="1076326" y="5876925"/>
           <a:ext cx="723899" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3135,14 +3134,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1162050</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3159,7 +3158,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1352550" y="5438775"/>
+          <a:off x="1352550" y="6800850"/>
           <a:ext cx="419100" cy="14288"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3187,14 +3186,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1162050</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3211,7 +3210,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1533525" y="5457825"/>
+          <a:off x="1533525" y="6819900"/>
           <a:ext cx="238125" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3239,14 +3238,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2790825</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3905250</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3261,7 +3260,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3400425" y="2962275"/>
+          <a:off x="3400425" y="4324350"/>
           <a:ext cx="1114425" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -3312,14 +3311,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3895726</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3334,7 +3333,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4505326" y="2781300"/>
+          <a:off x="4505326" y="4143375"/>
           <a:ext cx="933450" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -3385,14 +3384,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3143250</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4257675</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3407,7 +3406,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3752850" y="4610100"/>
+          <a:off x="3752850" y="5972175"/>
           <a:ext cx="1114425" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -3447,7 +3446,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Hudson</a:t>
+            <a:t>Bamboo</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3458,14 +3457,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3348038</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3533775</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3482,7 +3481,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3957638" y="3295650"/>
+          <a:off x="3957638" y="4657725"/>
           <a:ext cx="185737" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3510,14 +3509,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3543300</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4362451</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3534,7 +3533,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4152900" y="3114675"/>
+          <a:off x="4152900" y="4476750"/>
           <a:ext cx="819151" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3562,14 +3561,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3581400</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3700463</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3586,7 +3585,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4191000" y="4305300"/>
+          <a:off x="4191000" y="5667375"/>
           <a:ext cx="119063" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3614,14 +3613,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>390526</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3636,7 +3635,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7343776" y="4743450"/>
+          <a:off x="7343776" y="6105525"/>
           <a:ext cx="933450" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -3687,14 +3686,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>466726</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>180976</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3709,7 +3708,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7419976" y="5257800"/>
+          <a:off x="7419976" y="6619875"/>
           <a:ext cx="933450" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -3760,14 +3759,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>147638</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>390526</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3784,7 +3783,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6667500" y="4910138"/>
+          <a:off x="6667500" y="6272213"/>
           <a:ext cx="676276" cy="242887"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3812,14 +3811,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>466726</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3836,7 +3835,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6657975" y="5172075"/>
+          <a:off x="6657975" y="6534150"/>
           <a:ext cx="762001" cy="252413"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3864,14 +3863,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180976</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>504826</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3886,7 +3885,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7743826" y="2133600"/>
+          <a:off x="7743826" y="3495675"/>
           <a:ext cx="933450" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -3937,14 +3936,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>428626</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3959,7 +3958,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9820276" y="2362200"/>
+          <a:off x="9820276" y="3724275"/>
           <a:ext cx="1209674" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4010,14 +4009,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4032,7 +4031,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9458325" y="2886075"/>
+          <a:off x="9458325" y="4248150"/>
           <a:ext cx="933450" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4083,14 +4082,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4105,7 +4104,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9496425" y="3333750"/>
+          <a:off x="9496425" y="4695825"/>
           <a:ext cx="933450" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4156,14 +4155,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4178,7 +4177,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9439275" y="3848101"/>
+          <a:off x="9439275" y="5210176"/>
           <a:ext cx="1152525" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4229,14 +4228,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4251,7 +4250,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9401175" y="4314826"/>
+          <a:off x="9401175" y="5676901"/>
           <a:ext cx="1152525" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4302,14 +4301,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4324,7 +4323,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8420100" y="4667251"/>
+          <a:off x="8420100" y="6029326"/>
           <a:ext cx="1152525" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4375,14 +4374,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4399,7 +4398,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7172325" y="2466975"/>
+          <a:off x="7172325" y="3829050"/>
           <a:ext cx="1038226" cy="857250"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4427,14 +4426,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4449,7 +4448,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7162800" y="2638425"/>
+          <a:off x="7162800" y="4000500"/>
           <a:ext cx="2695575" cy="695326"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4477,14 +4476,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4501,7 +4500,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7162800" y="3052763"/>
+          <a:off x="7162800" y="4414838"/>
           <a:ext cx="2295525" cy="290512"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4529,14 +4528,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4553,7 +4552,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7172325" y="3333750"/>
+          <a:off x="7172325" y="4695825"/>
           <a:ext cx="2324100" cy="166688"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4581,14 +4580,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4605,7 +4604,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7172325" y="3343275"/>
+          <a:off x="7172325" y="4705350"/>
           <a:ext cx="2266950" cy="666751"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4633,14 +4632,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4657,7 +4656,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7162800" y="3352800"/>
+          <a:off x="7162800" y="4714875"/>
           <a:ext cx="2238375" cy="1123951"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4685,14 +4684,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>214313</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4709,7 +4708,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7181850" y="3362325"/>
+          <a:off x="7181850" y="4724400"/>
           <a:ext cx="1814513" cy="1304926"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4737,14 +4736,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>79248</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>107823</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4759,7 +4758,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8334375" y="1752600"/>
+          <a:off x="8334375" y="3114675"/>
           <a:ext cx="3390899" cy="612648"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -4800,14 +4799,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>476251</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>533401</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>117348</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>145923</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4822,7 +4821,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10477501" y="3124200"/>
+          <a:off x="10477501" y="4486275"/>
           <a:ext cx="1885950" cy="612648"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -4863,14 +4862,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1162050</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1809750</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4885,7 +4884,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1771650" y="2200275"/>
+          <a:off x="1771650" y="3562350"/>
           <a:ext cx="647700" cy="781051"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4946,14 +4945,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1133475</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1781175</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4968,7 +4967,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1743075" y="3133725"/>
+          <a:off x="1743075" y="4495800"/>
           <a:ext cx="647700" cy="781051"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5029,14 +5028,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1790700</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5051,7 +5050,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="4086225"/>
+          <a:off x="1752600" y="5448300"/>
           <a:ext cx="647700" cy="781051"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5098,14 +5097,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1790700</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5120,7 +5119,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="5048250"/>
+          <a:off x="1752600" y="6410325"/>
           <a:ext cx="647700" cy="781051"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5179,14 +5178,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5201,7 +5200,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6038850" y="2371725"/>
+          <a:off x="6038850" y="3733800"/>
           <a:ext cx="638175" cy="971550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5260,14 +5259,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>342901</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5282,7 +5281,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5962650" y="3543300"/>
+          <a:off x="5962650" y="4905375"/>
           <a:ext cx="723901" cy="971550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5341,14 +5340,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5363,7 +5362,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6038850" y="4676775"/>
+          <a:off x="6038850" y="6038850"/>
           <a:ext cx="638175" cy="971550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5422,14 +5421,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3000375</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4210050</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5444,7 +5443,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3609975" y="3514725"/>
+          <a:off x="3609975" y="4876800"/>
           <a:ext cx="1209675" cy="800100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5503,14 +5502,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5525,7 +5524,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6791325" y="2438400"/>
+          <a:off x="6791325" y="3800475"/>
           <a:ext cx="381000" cy="1838325"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
@@ -5559,23 +5558,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>11738</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>689720</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="Picture 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1A77BBC-510D-446F-BE36-85A769E7ECCB}"/>
+        <xdr:cNvPr id="63" name="Picture 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA539537-3AE5-4C84-865B-1A85C628FD06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5598,8 +5597,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1" y="6410326"/>
-          <a:ext cx="9877424" cy="3697912"/>
+          <a:off x="5162549" y="114299"/>
+          <a:ext cx="7357221" cy="2905125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6089,8 +6088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E37C445-2875-4EE6-9E97-653A70D41761}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
